--- a/ERP/SC_CONF_r5/config.xlsx
+++ b/ERP/SC_CONF_r5/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d.markov\Documents\PYTHON\Python_OOP\ERP\SC_CONF_r5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C06487D-4FFA-4ED4-94AF-EEE15FED2967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66F5FB0-23FE-4922-AA03-849F4CC10B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -511,9 +511,6 @@
     <t>DN, PN, Материал корпуса</t>
   </si>
   <si>
-    <t>PN16; PN25; PN40</t>
-  </si>
-  <si>
     <t>1.4408 / A351 CF8M</t>
   </si>
   <si>
@@ -527,6 +524,9 @@
   </si>
   <si>
     <t>1.0619 / A216 WCC; 1.5638 / A352 LC3; 1.4408 / A351 CF8M</t>
+  </si>
+  <si>
+    <t>PN25; PN40</t>
   </si>
 </sst>
 </file>
@@ -2206,7 +2206,7 @@
   <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2274,7 +2274,7 @@
         <v>142</v>
       </c>
       <c r="E2" s="92" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F2" s="3" t="str">
         <f>J2&amp;IF(ISTEXT(K2), "; "&amp;K2,)</f>
@@ -2288,7 +2288,7 @@
         <v>23</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K2" s="60"/>
     </row>
@@ -2306,7 +2306,7 @@
         <v>142</v>
       </c>
       <c r="E3" s="66" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F3" s="67" t="str">
         <f t="shared" ref="F3:F53" si="0">J3&amp;IF(ISTEXT(K3), "; "&amp;K3,)</f>
@@ -2320,7 +2320,7 @@
         <v>23</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K3" s="60"/>
     </row>
@@ -2338,7 +2338,7 @@
         <v>142</v>
       </c>
       <c r="E4" s="66" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F4" s="67" t="str">
         <f t="shared" si="0"/>
@@ -2352,7 +2352,7 @@
         <v>30</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K4" s="60"/>
     </row>
@@ -2370,7 +2370,7 @@
         <v>143</v>
       </c>
       <c r="E5" s="66" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F5" s="67" t="str">
         <f t="shared" si="0"/>
@@ -2382,7 +2382,7 @@
       </c>
       <c r="I5" s="61"/>
       <c r="J5" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K5" s="60"/>
     </row>
@@ -2400,7 +2400,7 @@
         <v>143</v>
       </c>
       <c r="E6" s="66" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F6" s="67" t="str">
         <f t="shared" si="0"/>
@@ -2412,7 +2412,7 @@
       </c>
       <c r="I6" s="61"/>
       <c r="J6" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K6" s="60"/>
     </row>
@@ -2430,7 +2430,7 @@
         <v>143</v>
       </c>
       <c r="E7" s="66" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F7" s="67" t="str">
         <f t="shared" si="0"/>
@@ -2442,7 +2442,7 @@
       </c>
       <c r="I7" s="61"/>
       <c r="J7" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K7" s="60"/>
     </row>
@@ -2460,7 +2460,7 @@
         <v>142</v>
       </c>
       <c r="E8" s="66" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F8" s="65" t="str">
         <f t="shared" si="0"/>
@@ -2472,7 +2472,7 @@
       </c>
       <c r="I8" s="61"/>
       <c r="J8" s="64" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K8" s="18" t="s">
         <v>23</v>
@@ -2492,7 +2492,7 @@
         <v>142</v>
       </c>
       <c r="E9" s="66" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F9" s="67" t="str">
         <f t="shared" si="0"/>
@@ -2504,7 +2504,7 @@
       </c>
       <c r="I9" s="61"/>
       <c r="J9" s="63" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K9" s="18" t="s">
         <v>30</v>
@@ -2524,7 +2524,7 @@
         <v>143</v>
       </c>
       <c r="E10" s="66" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F10" s="67" t="str">
         <f t="shared" si="0"/>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="I10" s="61"/>
       <c r="J10" s="64" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K10" s="18" t="s">
         <v>23</v>
@@ -2556,7 +2556,7 @@
         <v>143</v>
       </c>
       <c r="E11" s="69" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F11" s="70" t="str">
         <f t="shared" si="0"/>
@@ -2568,7 +2568,7 @@
       </c>
       <c r="I11" s="61"/>
       <c r="J11" s="63" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K11" s="33" t="s">
         <v>30</v>
@@ -2600,7 +2600,7 @@
         <v>48</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K12" s="14" t="s">
         <v>23</v>
@@ -2632,7 +2632,7 @@
         <v>48</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K13" s="18" t="s">
         <v>23</v>
@@ -2664,7 +2664,7 @@
         <v>55</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K14" s="18" t="s">
         <v>30</v>
@@ -2694,7 +2694,7 @@
       </c>
       <c r="I15" s="62"/>
       <c r="J15" s="63" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K15" s="18" t="s">
         <v>23</v>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="I16" s="21"/>
       <c r="J16" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K16" s="23" t="s">
         <v>30</v>
@@ -2754,7 +2754,7 @@
       </c>
       <c r="I17" s="24"/>
       <c r="J17" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K17" s="14" t="s">
         <v>23</v>
@@ -2784,7 +2784,7 @@
       </c>
       <c r="I18" s="62"/>
       <c r="J18" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K18" s="18" t="s">
         <v>23</v>
@@ -2814,7 +2814,7 @@
       </c>
       <c r="I19" s="62"/>
       <c r="J19" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K19" s="18" t="s">
         <v>30</v>
@@ -2844,7 +2844,7 @@
       </c>
       <c r="I20" s="62"/>
       <c r="J20" s="63" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K20" s="18" t="s">
         <v>23</v>
@@ -2874,7 +2874,7 @@
       </c>
       <c r="I21" s="21"/>
       <c r="J21" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K21" s="23" t="s">
         <v>30</v>
@@ -2908,7 +2908,7 @@
         <v>73</v>
       </c>
       <c r="J22" s="91" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K22" s="14" t="s">
         <v>23</v>
@@ -2942,7 +2942,7 @@
         <v>55</v>
       </c>
       <c r="J23" s="63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K23" s="18" t="s">
         <v>147</v>
@@ -2976,7 +2976,7 @@
         <v>80</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K24" s="18" t="s">
         <v>23</v>
@@ -3010,7 +3010,7 @@
         <v>84</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K25" s="18" t="s">
         <v>147</v>
@@ -3042,7 +3042,7 @@
       </c>
       <c r="I26" s="62"/>
       <c r="J26" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K26" s="18" t="s">
         <v>23</v>
@@ -3074,7 +3074,7 @@
       </c>
       <c r="I27" s="62"/>
       <c r="J27" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K27" s="18" t="s">
         <v>147</v>
@@ -3106,7 +3106,7 @@
       </c>
       <c r="I28" s="62"/>
       <c r="J28" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K28" s="18" t="s">
         <v>23</v>
@@ -3138,7 +3138,7 @@
       </c>
       <c r="I29" s="62"/>
       <c r="J29" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K29" s="33" t="s">
         <v>147</v>
@@ -3170,7 +3170,7 @@
       </c>
       <c r="I30" s="24"/>
       <c r="J30" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K30" s="14" t="s">
         <v>23</v>
@@ -3202,7 +3202,7 @@
       </c>
       <c r="I31" s="62"/>
       <c r="J31" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K31" s="18" t="s">
         <v>147</v>
@@ -3234,7 +3234,7 @@
       </c>
       <c r="I32" s="62"/>
       <c r="J32" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K32" s="18" t="s">
         <v>23</v>
@@ -3266,7 +3266,7 @@
       </c>
       <c r="I33" s="62"/>
       <c r="J33" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K33" s="18" t="s">
         <v>147</v>
@@ -3298,7 +3298,7 @@
       </c>
       <c r="I34" s="62"/>
       <c r="J34" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K34" s="18" t="s">
         <v>23</v>
@@ -3330,7 +3330,7 @@
       </c>
       <c r="I35" s="62"/>
       <c r="J35" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K35" s="18" t="s">
         <v>147</v>
@@ -3362,7 +3362,7 @@
       </c>
       <c r="I36" s="62"/>
       <c r="J36" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K36" s="18" t="s">
         <v>23</v>
@@ -3394,7 +3394,7 @@
       </c>
       <c r="I37" s="21"/>
       <c r="J37" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K37" s="23" t="s">
         <v>147</v>
@@ -3426,7 +3426,7 @@
       </c>
       <c r="I38" s="24"/>
       <c r="J38" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K38" s="14" t="s">
         <v>23</v>
@@ -3458,7 +3458,7 @@
       </c>
       <c r="I39" s="62"/>
       <c r="J39" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K39" s="18" t="s">
         <v>147</v>
@@ -3490,7 +3490,7 @@
       </c>
       <c r="I40" s="62"/>
       <c r="J40" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K40" s="18" t="s">
         <v>23</v>
@@ -3522,7 +3522,7 @@
       </c>
       <c r="I41" s="62"/>
       <c r="J41" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K41" s="18" t="s">
         <v>147</v>
@@ -3554,7 +3554,7 @@
       </c>
       <c r="I42" s="62"/>
       <c r="J42" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K42" s="18" t="s">
         <v>23</v>
@@ -3586,7 +3586,7 @@
       </c>
       <c r="I43" s="62"/>
       <c r="J43" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K43" s="18" t="s">
         <v>147</v>
@@ -3618,7 +3618,7 @@
       </c>
       <c r="I44" s="62"/>
       <c r="J44" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K44" s="18" t="s">
         <v>23</v>
@@ -3650,7 +3650,7 @@
       </c>
       <c r="I45" s="21"/>
       <c r="J45" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K45" s="23" t="s">
         <v>147</v>
@@ -3682,7 +3682,7 @@
       </c>
       <c r="I46" s="24"/>
       <c r="J46" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K46" s="14" t="s">
         <v>23</v>
@@ -3714,7 +3714,7 @@
       </c>
       <c r="I47" s="62"/>
       <c r="J47" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K47" s="18" t="s">
         <v>147</v>
@@ -3746,7 +3746,7 @@
       </c>
       <c r="I48" s="62"/>
       <c r="J48" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K48" s="18" t="s">
         <v>23</v>
@@ -3778,7 +3778,7 @@
       </c>
       <c r="I49" s="62"/>
       <c r="J49" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K49" s="18" t="s">
         <v>147</v>
@@ -3810,7 +3810,7 @@
       </c>
       <c r="I50" s="62"/>
       <c r="J50" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K50" s="18" t="s">
         <v>23</v>
@@ -3842,7 +3842,7 @@
       </c>
       <c r="I51" s="62"/>
       <c r="J51" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K51" s="18" t="s">
         <v>147</v>
@@ -3874,7 +3874,7 @@
       </c>
       <c r="I52" s="62"/>
       <c r="J52" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K52" s="18" t="s">
         <v>23</v>
@@ -3906,7 +3906,7 @@
       </c>
       <c r="I53" s="21"/>
       <c r="J53" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K53" s="23" t="s">
         <v>147</v>
